--- a/HP_assay/HP_assay_2/sample_layout.xlsx
+++ b/HP_assay/HP_assay_2/sample_layout.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/Hydroxyproline/HP_assay/HP_assay_2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC01F35-8809-9C4C-9F4B-AC1202F84600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2680" windowWidth="38400" windowHeight="21100" xr2:uid="{6CE53BA4-EA17-EB44-8A98-63DE70556C69}"/>
+    <workbookView xWindow="-38400" yWindow="-2685" windowWidth="38400" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
-    <sheet name="Well layout1" sheetId="2" r:id="rId2"/>
-    <sheet name="Well layout2" sheetId="3" r:id="rId3"/>
+    <sheet name="Digestion1" sheetId="4" r:id="rId2"/>
+    <sheet name="Well layout1" sheetId="2" r:id="rId3"/>
+    <sheet name="Well layout2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Samples!$D$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,13 +36,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="100">
   <si>
     <t>0526-1</t>
   </si>
@@ -309,16 +304,70 @@
   </si>
   <si>
     <t>blank_control</t>
+  </si>
+  <si>
+    <t>1,HP2,SZ-0526-1-1,sample,526,1,0526-1,1,1653.415,1641.155,12.26,SZ,,HPL,V2P1,07-27-2023</t>
+  </si>
+  <si>
+    <t>7,HP2,SZ-0526-3-1,sample,526,3,0526-3,1,1640.535,1627.705,12.83,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>13,HP2,SZ-0602-1-1,sample,602,1,0602-1,1,1646.415,1634.67,11.745,SZ,,HPL,PLA,07-26-2023</t>
+  </si>
+  <si>
+    <t>2,HP2,SZ-0526-1-2,sample,526,1,0526-1,2,1651.245,1638.63,12.615,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>8,HP2,SZ-0526-3-2,sample,526,3,0526-3,2,1654.8,1642.14,12.66,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>14,HP2,SZ-0602-1-2,sample,602,1,0602-1,2,1675.795,1664.3,11.495,SZ,,HPL,PLA,07-26-2023</t>
+  </si>
+  <si>
+    <t>3,HP2,SZ-0526-1-3,sample,526,1,0526-1,3,1654.31,1641.285,13.025,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>9,HP2,SZ-0526-3-3,sample,526,3,0526-3,3,1646.195,1632.825,13.37,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>15,HP2,SZ-0602-1-3,sample,602,1,0602-1,3,1658.43,1646.84,11.59,SZ,,HPL,PLA,07-26-2023</t>
+  </si>
+  <si>
+    <t>4,HP2,SZ-0526-2-1,sample,526,2,0526-2,1,1630.35,1618.18,12.17,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>10,HP2,SZ-0526-4-1,sample,526,4,0526-4,1,1650.125,1636.775,13.35,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>16,HP2,SZ-0602-2-1,sample,602,2,0602-2,1,1648.685,1638.37,10.315,SZ,,HPL,PLA,07-26-2023</t>
+  </si>
+  <si>
+    <t>5,HP2,SZ-0526-2-2,sample,526,2,0526-2,2,1674.71,1661.275,13.435,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>11,HP2,SZ-0526-4-2,sample,526,4,0526-4,2,1637.985,1624.165,13.82,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>17,HP2,SZ-0602-2-2,sample,602,2,0602-2,2,1667.53,1656.865,10.665,SZ,,HPL,PLA,07-26-2023</t>
+  </si>
+  <si>
+    <t>6,HP2,SZ-0526-2-3,sample,526,2,0526-2,3,1634.525,1621.96,12.565,SZ,,HPL,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>12,HP2,SZ-0526-4-3,sample,526,4,0526-4,3,1649.095,1635.38,13.715,SZ,,FBS,V2P1,07-26-2023</t>
+  </si>
+  <si>
+    <t>18,HP2,SZ-0602-2-3,sample,602,2,0602-2,3,1665.9,1655.535,10.365,SZ,,HPL,PLA,07-26-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -493,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -687,38 +736,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E309CBCC-47AE-604C-A811-F9D1F85A87A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
     <col min="12" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" customWidth="1"/>
-    <col min="19" max="19" width="82.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="82.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -780,7 +829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -838,7 +887,7 @@
         <v>1,HP2,VA-0526-1-1,sample,526,1,0526-1,8,1,1653.415,1653.415,1641.155,1641.155,VA,,HPL,V2P1,07-27-2023</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -896,7 +945,7 @@
         <v>2,HP2,VA-0526-1-2,sample,526,1,0526-1,8,2,1651.245,1651.245,1638.63,1638.63,VA,,HPL,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,7 +1003,7 @@
         <v>3,HP2,VA-0526-1-3,sample,526,1,0526-1,8,3,1654.31,1654.31,1641.285,1641.285,VA,,HPL,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1012,7 +1061,7 @@
         <v>4,HP2,VA-0526-2-1,sample,526,2,0526-2,8,1,1630.35,1630.35,1618.18,1618.18,VA,,HPL,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1070,7 +1119,7 @@
         <v>5,HP2,VA-0526-2-2,sample,526,2,0526-2,8,2,1674.71,1674.71,1661.275,1661.275,VA,,HPL,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1128,7 +1177,7 @@
         <v>6,HP2,VA-0526-2-3,sample,526,2,0526-2,8,3,1634.525,1634.525,1621.96,1621.96,VA,,HPL,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1186,7 +1235,7 @@
         <v>7,HP2,VA-0526-3-1,sample,526,3,0526-3,8,1,1640.535,1640.535,1627.705,1627.705,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1244,7 +1293,7 @@
         <v>8,HP2,VA-0526-3-2,sample,526,3,0526-3,8,2,1654.8,1654.8,1642.14,1642.14,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1302,7 +1351,7 @@
         <v>9,HP2,VA-0526-3-3,sample,526,3,0526-3,8,3,1646.195,1646.195,1632.825,1632.825,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1360,7 +1409,7 @@
         <v>10,HP2,VA-0526-4-1,sample,526,4,0526-4,8,1,1650.125,1650.125,1636.775,1636.775,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1418,7 +1467,7 @@
         <v>11,HP2,VA-0526-4-2,sample,526,4,0526-4,8,2,1637.985,1637.985,1624.165,1624.165,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1476,7 +1525,7 @@
         <v>12,HP2,VA-0526-4-3,sample,526,4,0526-4,8,3,1649.095,1649.095,1635.38,1635.38,VA,,FBS,V2P1,07-26-2023</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1534,7 +1583,7 @@
         <v>13,HP2,VA-0602-1-1,sample,602,1,0602-1,8,1,1646.415,1646.415,1634.67,1634.67,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1592,7 +1641,7 @@
         <v>14,HP2,VA-0602-1-2,sample,602,1,0602-1,8,2,1675.795,1675.795,1664.3,1664.3,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1650,7 +1699,7 @@
         <v>15,HP2,VA-0602-1-3,sample,602,1,0602-1,8,3,1658.43,1658.43,1646.84,1646.84,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1708,7 +1757,7 @@
         <v>16,HP2,VA-0602-2-1,sample,602,2,0602-2,8,1,1648.685,1648.685,1638.37,1638.37,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1766,7 +1815,7 @@
         <v>17,HP2,VA-0602-2-2,sample,602,2,0602-2,8,2,1667.53,1667.53,1656.865,1656.865,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1824,7 +1873,7 @@
         <v>18,HP2,VA-0602-2-3,sample,602,2,0602-2,8,3,1665.9,1665.9,1655.535,1655.535,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1882,7 +1931,7 @@
         <v>19,HP2,VA-0602-3-1,sample,602,3,0602-3,8,1,1647.165,1647.165,1636.29,1636.29,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1940,7 +1989,7 @@
         <v>20,HP2,VA-0602-3-2,sample,602,3,0602-3,8,2,1645.895,1645.895,1633.64,1633.64,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1998,7 +2047,7 @@
         <v>21,HP2,VA-0602-3-3,sample,602,3,0602-3,8,3,1647.46,1647.46,1636.095,1636.095,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2056,7 +2105,7 @@
         <v>22,HP2,VA-0602-4-1,sample,602,4,0602-4,8,1,1666.315,1666.315,1654.245,1654.245,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2114,7 +2163,7 @@
         <v>23,HP2,VA-0602-4-2,sample,602,4,0602-4,8,2,1651.46,1651.46,1639.055,1639.055,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2172,7 +2221,7 @@
         <v>24,HP2,VA-0602-4-3,sample,602,4,0602-4,8,3,1671.81,1671.81,1659.435,1659.435,VA,,FBS,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2210,7 +2259,7 @@
         <v>25,HP2,Gelatin-5mg/mL,control,,,,,,,,,,VA,10,,,07-26-2023</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2248,7 +2297,7 @@
         <v>26,HP2,Gelatin-2.5mg/mL,control,,,,,,,,,,VA,5,,,07-26-2023</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2286,7 +2335,7 @@
         <v>27,HP2,Gelatin-0,control,,,,,,,,,,VA,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2322,7 +2371,7 @@
         <v>28,HP2,Gelatin-2.5mg/mL+hyp 0.02mg/mL,empty,,,,,,,,,,VA,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2360,7 +2409,7 @@
         <v>29,HP2,S0,standard,,,,,,,,,,VA,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2398,7 +2447,7 @@
         <v>30,HP2,S1,standard,,,,,,,,,,VA,0.2,,,07-26-2023</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2436,7 +2485,7 @@
         <v>31,HP2,S2,standard,,,,,,,,,,VA,0.4,,,07-26-2023</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2474,7 +2523,7 @@
         <v>32,HP2,S3,standard,,,,,,,,,,VA,0.6,,,07-26-2023</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2512,7 +2561,7 @@
         <v>33,HP2,S4,standard,,,,,,,,,,VA,0.8,,,07-26-2023</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2550,7 +2599,7 @@
         <v>34,HP2,S5,standard,,,,,,,,,,VA,1,,,07-26-2023</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -2581,13 +2630,13 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36" xr:uid="{C4EA339F-DDB1-8442-9FFE-A9747B948350}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36">
       <formula1>"V2P1,PLA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P36" xr:uid="{D489D5C5-7DD5-0746-B26E-67517B693422}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P36">
       <formula1>"HPL,FBS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{2AAAB78C-15C4-4E49-B7C7-BD7F49E55EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"sample,standard,control,blank_control,empty"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2596,19 +2645,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC62B76A-6E26-A147-AB2E-28F2FCE60114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="13" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2646,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="126">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +3021,7 @@
         <v>13,HP2,VA-0602-1-1,sample,602,1,0602-1,8,1,1646.415,1646.415,1634.67,1634.67,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="126">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +3074,7 @@
         <v>14,HP2,VA-0602-1-2,sample,602,1,0602-1,8,2,1675.795,1675.795,1664.3,1664.3,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="126">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2805,7 +3127,7 @@
         <v>15,HP2,VA-0602-1-3,sample,602,1,0602-1,8,3,1658.43,1658.43,1646.84,1646.84,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="141.75">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2858,7 +3180,7 @@
         <v>16,HP2,VA-0602-2-1,sample,602,2,0602-2,8,1,1648.685,1648.685,1638.37,1638.37,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="141.75">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2911,7 +3233,7 @@
         <v>17,HP2,VA-0602-2-2,sample,602,2,0602-2,8,2,1667.53,1667.53,1656.865,1656.865,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="126">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2964,7 +3286,7 @@
         <v>18,HP2,VA-0602-2-3,sample,602,2,0602-2,8,3,1665.9,1665.9,1655.535,1655.535,VA,,HPL,PLA,07-26-2023</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +3295,7 @@
         <v>39,HP2,water,blank_control,,,,,,,,,,VA,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2983,22 +3305,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CF2658-99E5-0D4F-BF5A-384C938EA4E6}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="13" width="23.33203125" customWidth="1"/>
+    <col min="1" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="31.375" customWidth="1"/>
+    <col min="11" max="13" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -3037,7 +3359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="78.75">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +3406,7 @@
         <v>29,HP2,S0,standard,,,,,,,,,,VA,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3453,7 @@
         <v>29,HP2,S0,standard,,,,,,,,,,VA,0,,,07-26-2023</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="78.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3482,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="78.75">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3189,7 +3511,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3552,7 @@
         <v>28,HP2,Gelatin-2.5mg/mL+hyp 0.02mg/mL,empty,,,,,,,,,,VA,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3593,7 @@
         <v>28,HP2,Gelatin-2.5mg/mL+hyp 0.02mg/mL,empty,,,,,,,,,,VA,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3622,7 @@
         <v>28,HP2,Gelatin-2.5mg/mL+hyp 0.02mg/mL,empty,,,,,,,,,,VA,,,,07-26-2023</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
